--- a/standings.xlsx
+++ b/standings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rchiovaro\Desktop\DVA Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillmantel/Documents/Georgia Tech/CSE 6242 Data and Visual Analytics/Project/DVA-Team-069-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CD3756-81AC-4ED1-8A82-2379C9CD9929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203F329D-EC6A-4F41-8D76-50E2CD4D151E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24990" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{1BAAF581-5FC2-49D9-9526-13740BA07603}"/>
+    <workbookView xWindow="12300" yWindow="500" windowWidth="16480" windowHeight="15940" xr2:uid="{1BAAF581-5FC2-49D9-9526-13740BA07603}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="38">
   <si>
     <t>W</t>
   </si>
@@ -498,18 +498,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8131D2-BC43-4C31-8DA9-E4808751A00C}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:H121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -535,7 +535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -561,7 +561,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -587,7 +587,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -613,7 +613,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -639,7 +639,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -665,7 +665,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -691,7 +691,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -717,7 +717,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -743,7 +743,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -769,7 +769,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -795,7 +795,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -821,7 +821,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -847,7 +847,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -873,7 +873,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -899,7 +899,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -925,7 +925,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -951,7 +951,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -977,7 +977,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>35</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>32</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>27</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>34</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>35</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>36</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>30</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>29</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>31</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -2873,6 +2873,786 @@
       </c>
       <c r="H91">
         <v>2019</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92">
+        <v>56</v>
+      </c>
+      <c r="C92">
+        <v>17</v>
+      </c>
+      <c r="D92">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="E92">
+        <v>118.7</v>
+      </c>
+      <c r="F92">
+        <v>108.6</v>
+      </c>
+      <c r="G92">
+        <v>9.41</v>
+      </c>
+      <c r="H92">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93">
+        <v>53</v>
+      </c>
+      <c r="C93">
+        <v>19</v>
+      </c>
+      <c r="D93">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="E93">
+        <v>112.8</v>
+      </c>
+      <c r="F93">
+        <v>106.5</v>
+      </c>
+      <c r="G93">
+        <v>5.97</v>
+      </c>
+      <c r="H93">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94">
+        <v>48</v>
+      </c>
+      <c r="C94">
+        <v>24</v>
+      </c>
+      <c r="D94">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E94">
+        <v>113.7</v>
+      </c>
+      <c r="F94">
+        <v>107.3</v>
+      </c>
+      <c r="G94">
+        <v>5.83</v>
+      </c>
+      <c r="H94">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95">
+        <v>45</v>
+      </c>
+      <c r="C95">
+        <v>28</v>
+      </c>
+      <c r="D95">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="E95">
+        <v>109.4</v>
+      </c>
+      <c r="F95">
+        <v>107.5</v>
+      </c>
+      <c r="G95">
+        <v>1.63</v>
+      </c>
+      <c r="H95">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96">
+        <v>44</v>
+      </c>
+      <c r="C96">
+        <v>29</v>
+      </c>
+      <c r="D96">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="E96">
+        <v>112</v>
+      </c>
+      <c r="F96">
+        <v>109.1</v>
+      </c>
+      <c r="G96">
+        <v>2.59</v>
+      </c>
+      <c r="H96">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97">
+        <v>43</v>
+      </c>
+      <c r="C97">
+        <v>30</v>
+      </c>
+      <c r="D97">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="E97">
+        <v>110.7</v>
+      </c>
+      <c r="F97">
+        <v>108.4</v>
+      </c>
+      <c r="G97">
+        <v>2.25</v>
+      </c>
+      <c r="H97">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98">
+        <v>35</v>
+      </c>
+      <c r="C98">
+        <v>37</v>
+      </c>
+      <c r="D98">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="E98">
+        <v>111.8</v>
+      </c>
+      <c r="F98">
+        <v>112.3</v>
+      </c>
+      <c r="G98">
+        <v>-1.01</v>
+      </c>
+      <c r="H98">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99">
+        <v>33</v>
+      </c>
+      <c r="C99">
+        <v>40</v>
+      </c>
+      <c r="D99">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="E99">
+        <v>107.3</v>
+      </c>
+      <c r="F99">
+        <v>108.3</v>
+      </c>
+      <c r="G99">
+        <v>-0.93</v>
+      </c>
+      <c r="H99">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100">
+        <v>23</v>
+      </c>
+      <c r="C100">
+        <v>42</v>
+      </c>
+      <c r="D100">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E100">
+        <v>102.9</v>
+      </c>
+      <c r="F100">
+        <v>109.6</v>
+      </c>
+      <c r="G100">
+        <v>-7.03</v>
+      </c>
+      <c r="H100">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101">
+        <v>25</v>
+      </c>
+      <c r="C101">
+        <v>47</v>
+      </c>
+      <c r="D101">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="E101">
+        <v>114.4</v>
+      </c>
+      <c r="F101">
+        <v>119.1</v>
+      </c>
+      <c r="G101">
+        <v>-5.24</v>
+      </c>
+      <c r="H101">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102">
+        <v>22</v>
+      </c>
+      <c r="C102">
+        <v>43</v>
+      </c>
+      <c r="D102">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="E102">
+        <v>106.8</v>
+      </c>
+      <c r="F102">
+        <v>109.9</v>
+      </c>
+      <c r="G102">
+        <v>-4</v>
+      </c>
+      <c r="H102">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103">
+        <v>21</v>
+      </c>
+      <c r="C103">
+        <v>45</v>
+      </c>
+      <c r="D103">
+        <v>0.318</v>
+      </c>
+      <c r="E103">
+        <v>105.8</v>
+      </c>
+      <c r="F103">
+        <v>112.3</v>
+      </c>
+      <c r="G103">
+        <v>-6.72</v>
+      </c>
+      <c r="H103">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104">
+        <v>20</v>
+      </c>
+      <c r="C104">
+        <v>46</v>
+      </c>
+      <c r="D104">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E104">
+        <v>107.2</v>
+      </c>
+      <c r="F104">
+        <v>110.8</v>
+      </c>
+      <c r="G104">
+        <v>-4.38</v>
+      </c>
+      <c r="H104">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105">
+        <v>20</v>
+      </c>
+      <c r="C105">
+        <v>47</v>
+      </c>
+      <c r="D105">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E105">
+        <v>111.8</v>
+      </c>
+      <c r="F105">
+        <v>119.7</v>
+      </c>
+      <c r="G105">
+        <v>-7.71</v>
+      </c>
+      <c r="H105">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106">
+        <v>19</v>
+      </c>
+      <c r="C106">
+        <v>46</v>
+      </c>
+      <c r="D106">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="E106">
+        <v>106.9</v>
+      </c>
+      <c r="F106">
+        <v>114.8</v>
+      </c>
+      <c r="G106">
+        <v>-7.77</v>
+      </c>
+      <c r="H106">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107">
+        <v>52</v>
+      </c>
+      <c r="C107">
+        <v>19</v>
+      </c>
+      <c r="D107">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="E107">
+        <v>113.4</v>
+      </c>
+      <c r="F107">
+        <v>107.6</v>
+      </c>
+      <c r="G107">
+        <v>6.28</v>
+      </c>
+      <c r="H107">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108">
+        <v>49</v>
+      </c>
+      <c r="C108">
+        <v>23</v>
+      </c>
+      <c r="D108">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="E108">
+        <v>116.3</v>
+      </c>
+      <c r="F108">
+        <v>109.9</v>
+      </c>
+      <c r="G108">
+        <v>6.66</v>
+      </c>
+      <c r="H108">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109">
+        <v>46</v>
+      </c>
+      <c r="C109">
+        <v>27</v>
+      </c>
+      <c r="D109">
+        <v>0.63</v>
+      </c>
+      <c r="E109">
+        <v>111.3</v>
+      </c>
+      <c r="F109">
+        <v>109.2</v>
+      </c>
+      <c r="G109">
+        <v>2.35</v>
+      </c>
+      <c r="H109">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>44</v>
+      </c>
+      <c r="C110">
+        <v>28</v>
+      </c>
+      <c r="D110">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="E110">
+        <v>117.8</v>
+      </c>
+      <c r="F110">
+        <v>114.8</v>
+      </c>
+      <c r="G110">
+        <v>3.13</v>
+      </c>
+      <c r="H110">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111">
+        <v>44</v>
+      </c>
+      <c r="C111">
+        <v>28</v>
+      </c>
+      <c r="D111">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="E111">
+        <v>110.4</v>
+      </c>
+      <c r="F111">
+        <v>108.4</v>
+      </c>
+      <c r="G111">
+        <v>2.33</v>
+      </c>
+      <c r="H111">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112">
+        <v>44</v>
+      </c>
+      <c r="C112">
+        <v>28</v>
+      </c>
+      <c r="D112">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="E112">
+        <v>111.3</v>
+      </c>
+      <c r="F112">
+        <v>108.8</v>
+      </c>
+      <c r="G112">
+        <v>2.52</v>
+      </c>
+      <c r="H112">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113">
+        <v>43</v>
+      </c>
+      <c r="C113">
+        <v>32</v>
+      </c>
+      <c r="D113">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="E113">
+        <v>117</v>
+      </c>
+      <c r="F113">
+        <v>112.1</v>
+      </c>
+      <c r="G113">
+        <v>4.87</v>
+      </c>
+      <c r="H113">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>26</v>
+      </c>
+      <c r="B114">
+        <v>35</v>
+      </c>
+      <c r="C114">
+        <v>39</v>
+      </c>
+      <c r="D114">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="E114">
+        <v>115</v>
+      </c>
+      <c r="F114">
+        <v>116.1</v>
+      </c>
+      <c r="G114">
+        <v>-0.61</v>
+      </c>
+      <c r="H114">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115">
+        <v>34</v>
+      </c>
+      <c r="C115">
+        <v>39</v>
+      </c>
+      <c r="D115">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="E115">
+        <v>112.6</v>
+      </c>
+      <c r="F115">
+        <v>113.7</v>
+      </c>
+      <c r="G115">
+        <v>-0.91</v>
+      </c>
+      <c r="H115">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116">
+        <v>34</v>
+      </c>
+      <c r="C116">
+        <v>39</v>
+      </c>
+      <c r="D116">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="E116">
+        <v>113.6</v>
+      </c>
+      <c r="F116">
+        <v>113.4</v>
+      </c>
+      <c r="G116">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H116">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>30</v>
+      </c>
+      <c r="B117">
+        <v>32</v>
+      </c>
+      <c r="C117">
+        <v>39</v>
+      </c>
+      <c r="D117">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="E117">
+        <v>114.1</v>
+      </c>
+      <c r="F117">
+        <v>115.2</v>
+      </c>
+      <c r="G117">
+        <v>-0.65</v>
+      </c>
+      <c r="H117">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118">
+        <v>31</v>
+      </c>
+      <c r="C118">
+        <v>41</v>
+      </c>
+      <c r="D118">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E118">
+        <v>110.1</v>
+      </c>
+      <c r="F118">
+        <v>112.1</v>
+      </c>
+      <c r="G118">
+        <v>-1.59</v>
+      </c>
+      <c r="H118">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>29</v>
+      </c>
+      <c r="B119">
+        <v>30</v>
+      </c>
+      <c r="C119">
+        <v>42</v>
+      </c>
+      <c r="D119">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="E119">
+        <v>115.8</v>
+      </c>
+      <c r="F119">
+        <v>117.1</v>
+      </c>
+      <c r="G119">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="H119">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>31</v>
+      </c>
+      <c r="B120">
+        <v>19</v>
+      </c>
+      <c r="C120">
+        <v>45</v>
+      </c>
+      <c r="D120">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="E120">
+        <v>113.3</v>
+      </c>
+      <c r="F120">
+        <v>117.5</v>
+      </c>
+      <c r="G120">
+        <v>-4.0199999999999996</v>
+      </c>
+      <c r="H120">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121">
+        <v>15</v>
+      </c>
+      <c r="C121">
+        <v>50</v>
+      </c>
+      <c r="D121">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="E121">
+        <v>106.3</v>
+      </c>
+      <c r="F121">
+        <v>115</v>
+      </c>
+      <c r="G121">
+        <v>-8.1199999999999992</v>
+      </c>
+      <c r="H121">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
